--- a/CPU/状态机真值表管理.xlsx
+++ b/CPU/状态机真值表管理.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\百度同步盘\0常用文件\J教学资料\实验mooc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\Lab-ComputerOrganization\CPU\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="状态机真值表" sheetId="1" r:id="rId1"/>
@@ -1903,9 +1903,9 @@
   </sheetPr>
   <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S1" sqref="S1"/>
+      <selection pane="bottomLeft" activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2239,22 +2239,24 @@
         <v>14</v>
       </c>
       <c r="M5" s="30"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="44" t="str">
+      <c r="N5" s="63">
+        <v>5</v>
+      </c>
+      <c r="O5" s="44">
         <f t="shared" si="4"/>
-        <v>X</v>
-      </c>
-      <c r="P5" s="45" t="str">
+        <v>0</v>
+      </c>
+      <c r="P5" s="45">
         <f t="shared" si="5"/>
-        <v>X</v>
-      </c>
-      <c r="Q5" s="45" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="45">
         <f t="shared" si="6"/>
-        <v>X</v>
-      </c>
-      <c r="R5" s="45" t="str">
+        <v>0</v>
+      </c>
+      <c r="R5" s="45">
         <f t="shared" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="T5" s="11" t="s">
         <v>33</v>
@@ -2308,22 +2310,24 @@
         <v>14</v>
       </c>
       <c r="M6" s="33"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="41" t="str">
+      <c r="N6" s="64">
+        <v>9</v>
+      </c>
+      <c r="O6" s="41">
         <f t="shared" si="4"/>
-        <v>X</v>
-      </c>
-      <c r="P6" s="42" t="str">
+        <v>1</v>
+      </c>
+      <c r="P6" s="42">
         <f t="shared" si="5"/>
-        <v>X</v>
-      </c>
-      <c r="Q6" s="42" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="42">
         <f t="shared" si="6"/>
-        <v>X</v>
-      </c>
-      <c r="R6" s="42" t="str">
+        <v>0</v>
+      </c>
+      <c r="R6" s="42">
         <f t="shared" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="T6" s="2" t="s">
         <v>34</v>
@@ -2377,22 +2381,24 @@
         <v>14</v>
       </c>
       <c r="M7" s="30"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="44" t="str">
+      <c r="N7" s="63">
+        <v>10</v>
+      </c>
+      <c r="O7" s="44">
         <f t="shared" si="4"/>
-        <v>X</v>
-      </c>
-      <c r="P7" s="45" t="str">
+        <v>1</v>
+      </c>
+      <c r="P7" s="45">
         <f t="shared" si="5"/>
-        <v>X</v>
-      </c>
-      <c r="Q7" s="45" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="45">
         <f t="shared" si="6"/>
-        <v>X</v>
-      </c>
-      <c r="R7" s="45" t="str">
+        <v>1</v>
+      </c>
+      <c r="R7" s="45">
         <f t="shared" si="7"/>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="T7" s="11" t="s">
         <v>36</v>
@@ -2446,22 +2452,24 @@
         <v>14</v>
       </c>
       <c r="M8" s="33"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="41" t="str">
+      <c r="N8" s="64">
+        <v>13</v>
+      </c>
+      <c r="O8" s="41">
         <f t="shared" si="4"/>
-        <v>X</v>
-      </c>
-      <c r="P8" s="42" t="str">
+        <v>1</v>
+      </c>
+      <c r="P8" s="42">
         <f t="shared" si="5"/>
-        <v>X</v>
-      </c>
-      <c r="Q8" s="42" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="42">
         <f t="shared" si="6"/>
-        <v>X</v>
-      </c>
-      <c r="R8" s="42" t="str">
+        <v>0</v>
+      </c>
+      <c r="R8" s="42">
         <f t="shared" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="T8" s="2" t="s">
         <v>38</v>
@@ -2515,22 +2523,24 @@
         <v>1</v>
       </c>
       <c r="M9" s="30"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="44" t="str">
+      <c r="N9" s="63">
+        <v>11</v>
+      </c>
+      <c r="O9" s="44">
         <f t="shared" si="4"/>
-        <v>X</v>
-      </c>
-      <c r="P9" s="45" t="str">
+        <v>1</v>
+      </c>
+      <c r="P9" s="45">
         <f t="shared" si="5"/>
-        <v>X</v>
-      </c>
-      <c r="Q9" s="45" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="45">
         <f t="shared" si="6"/>
-        <v>X</v>
-      </c>
-      <c r="R9" s="45" t="str">
+        <v>1</v>
+      </c>
+      <c r="R9" s="45">
         <f t="shared" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="T9" s="11" t="s">
         <v>59</v>
@@ -2584,22 +2594,24 @@
         <v>14</v>
       </c>
       <c r="M10" s="33"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="41" t="str">
+      <c r="N10" s="64">
+        <v>3</v>
+      </c>
+      <c r="O10" s="41">
         <f t="shared" si="4"/>
-        <v>X</v>
-      </c>
-      <c r="P10" s="42" t="str">
+        <v>0</v>
+      </c>
+      <c r="P10" s="42">
         <f t="shared" si="5"/>
-        <v>X</v>
-      </c>
-      <c r="Q10" s="42" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="42">
         <f t="shared" si="6"/>
-        <v>X</v>
-      </c>
-      <c r="R10" s="42" t="str">
+        <v>1</v>
+      </c>
+      <c r="R10" s="42">
         <f t="shared" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="T10" s="2" t="s">
         <v>60</v>
@@ -2653,22 +2665,24 @@
         <v>14</v>
       </c>
       <c r="M11" s="30"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="44" t="str">
+      <c r="N11" s="63">
+        <v>4</v>
+      </c>
+      <c r="O11" s="44">
         <f t="shared" si="4"/>
-        <v>X</v>
-      </c>
-      <c r="P11" s="45" t="str">
+        <v>0</v>
+      </c>
+      <c r="P11" s="45">
         <f t="shared" si="5"/>
-        <v>X</v>
-      </c>
-      <c r="Q11" s="45" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="45">
         <f t="shared" si="6"/>
-        <v>X</v>
-      </c>
-      <c r="R11" s="45" t="str">
+        <v>0</v>
+      </c>
+      <c r="R11" s="45">
         <f t="shared" si="7"/>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="T11" s="11" t="s">
         <v>42</v>
@@ -2722,22 +2736,24 @@
         <v>14</v>
       </c>
       <c r="M12" s="33"/>
-      <c r="N12" s="64"/>
-      <c r="O12" s="41" t="str">
+      <c r="N12" s="64">
+        <v>0</v>
+      </c>
+      <c r="O12" s="41">
         <f t="shared" si="4"/>
-        <v>X</v>
-      </c>
-      <c r="P12" s="42" t="str">
+        <v>0</v>
+      </c>
+      <c r="P12" s="42">
         <f t="shared" si="5"/>
-        <v>X</v>
-      </c>
-      <c r="Q12" s="42" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="42">
         <f t="shared" si="6"/>
-        <v>X</v>
-      </c>
-      <c r="R12" s="42" t="str">
+        <v>0</v>
+      </c>
+      <c r="R12" s="42">
         <f t="shared" si="7"/>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="T12" s="2" t="s">
         <v>44</v>
@@ -2791,22 +2807,24 @@
         <v>14</v>
       </c>
       <c r="M13" s="30"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="44" t="str">
+      <c r="N13" s="63">
+        <v>6</v>
+      </c>
+      <c r="O13" s="44">
         <f t="shared" si="4"/>
-        <v>X</v>
-      </c>
-      <c r="P13" s="45" t="str">
+        <v>0</v>
+      </c>
+      <c r="P13" s="45">
         <f t="shared" si="5"/>
-        <v>X</v>
-      </c>
-      <c r="Q13" s="45" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="45">
         <f t="shared" si="6"/>
-        <v>X</v>
-      </c>
-      <c r="R13" s="45" t="str">
+        <v>1</v>
+      </c>
+      <c r="R13" s="45">
         <f t="shared" si="7"/>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="T13" s="11" t="s">
         <v>46</v>
@@ -2860,22 +2878,24 @@
         <v>14</v>
       </c>
       <c r="M14" s="33"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="41" t="str">
+      <c r="N14" s="64">
+        <v>0</v>
+      </c>
+      <c r="O14" s="41">
         <f t="shared" si="4"/>
-        <v>X</v>
-      </c>
-      <c r="P14" s="42" t="str">
+        <v>0</v>
+      </c>
+      <c r="P14" s="42">
         <f t="shared" si="5"/>
-        <v>X</v>
-      </c>
-      <c r="Q14" s="42" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="42">
         <f t="shared" si="6"/>
-        <v>X</v>
-      </c>
-      <c r="R14" s="42" t="str">
+        <v>0</v>
+      </c>
+      <c r="R14" s="42">
         <f t="shared" si="7"/>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="T14" s="2" t="s">
         <v>48</v>
@@ -2929,22 +2949,24 @@
         <v>14</v>
       </c>
       <c r="M15" s="30"/>
-      <c r="N15" s="63"/>
-      <c r="O15" s="44" t="str">
+      <c r="N15" s="63">
+        <v>8</v>
+      </c>
+      <c r="O15" s="44">
         <f t="shared" si="4"/>
-        <v>X</v>
-      </c>
-      <c r="P15" s="45" t="str">
+        <v>1</v>
+      </c>
+      <c r="P15" s="45">
         <f t="shared" si="5"/>
-        <v>X</v>
-      </c>
-      <c r="Q15" s="45" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="45">
         <f t="shared" si="6"/>
-        <v>X</v>
-      </c>
-      <c r="R15" s="45" t="str">
+        <v>0</v>
+      </c>
+      <c r="R15" s="45">
         <f t="shared" si="7"/>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="T15" s="11" t="s">
         <v>50</v>
@@ -2998,22 +3020,24 @@
         <v>14</v>
       </c>
       <c r="M16" s="33"/>
-      <c r="N16" s="64"/>
-      <c r="O16" s="41" t="str">
+      <c r="N16" s="64">
+        <v>0</v>
+      </c>
+      <c r="O16" s="41">
         <f t="shared" si="4"/>
-        <v>X</v>
-      </c>
-      <c r="P16" s="42" t="str">
+        <v>0</v>
+      </c>
+      <c r="P16" s="42">
         <f t="shared" si="5"/>
-        <v>X</v>
-      </c>
-      <c r="Q16" s="42" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="42">
         <f t="shared" si="6"/>
-        <v>X</v>
-      </c>
-      <c r="R16" s="42" t="str">
+        <v>0</v>
+      </c>
+      <c r="R16" s="42">
         <f t="shared" si="7"/>
-        <v>X</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
@@ -3058,22 +3082,24 @@
         <v>14</v>
       </c>
       <c r="M17" s="30"/>
-      <c r="N17" s="63"/>
-      <c r="O17" s="44" t="str">
+      <c r="N17" s="63">
+        <v>0</v>
+      </c>
+      <c r="O17" s="44">
         <f t="shared" si="4"/>
-        <v>X</v>
-      </c>
-      <c r="P17" s="45" t="str">
+        <v>0</v>
+      </c>
+      <c r="P17" s="45">
         <f t="shared" si="5"/>
-        <v>X</v>
-      </c>
-      <c r="Q17" s="45" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="45">
         <f t="shared" si="6"/>
-        <v>X</v>
-      </c>
-      <c r="R17" s="45" t="str">
+        <v>0</v>
+      </c>
+      <c r="R17" s="45">
         <f t="shared" si="7"/>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="T17" s="74" t="s">
         <v>58</v>
@@ -3123,22 +3149,24 @@
         <v>14</v>
       </c>
       <c r="M18" s="33"/>
-      <c r="N18" s="64"/>
-      <c r="O18" s="41" t="str">
+      <c r="N18" s="64">
+        <v>0</v>
+      </c>
+      <c r="O18" s="41">
         <f t="shared" si="4"/>
-        <v>X</v>
-      </c>
-      <c r="P18" s="42" t="str">
+        <v>0</v>
+      </c>
+      <c r="P18" s="42">
         <f t="shared" si="5"/>
-        <v>X</v>
-      </c>
-      <c r="Q18" s="42" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="42">
         <f t="shared" si="6"/>
-        <v>X</v>
-      </c>
-      <c r="R18" s="42" t="str">
+        <v>0</v>
+      </c>
+      <c r="R18" s="42">
         <f t="shared" si="7"/>
-        <v>X</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
@@ -3183,22 +3211,24 @@
         <v>14</v>
       </c>
       <c r="M19" s="30"/>
-      <c r="N19" s="63"/>
-      <c r="O19" s="44" t="str">
+      <c r="N19" s="63">
+        <v>12</v>
+      </c>
+      <c r="O19" s="44">
         <f t="shared" si="4"/>
-        <v>X</v>
-      </c>
-      <c r="P19" s="45" t="str">
+        <v>1</v>
+      </c>
+      <c r="P19" s="45">
         <f t="shared" si="5"/>
-        <v>X</v>
-      </c>
-      <c r="Q19" s="45" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="45">
         <f t="shared" si="6"/>
-        <v>X</v>
-      </c>
-      <c r="R19" s="45" t="str">
+        <v>0</v>
+      </c>
+      <c r="R19" s="45">
         <f t="shared" si="7"/>
-        <v>X</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
@@ -3243,22 +3273,24 @@
         <v>14</v>
       </c>
       <c r="M20" s="33"/>
-      <c r="N20" s="64"/>
-      <c r="O20" s="41" t="str">
+      <c r="N20" s="64">
+        <v>0</v>
+      </c>
+      <c r="O20" s="41">
         <f t="shared" si="4"/>
-        <v>X</v>
-      </c>
-      <c r="P20" s="42" t="str">
+        <v>0</v>
+      </c>
+      <c r="P20" s="42">
         <f t="shared" si="5"/>
-        <v>X</v>
-      </c>
-      <c r="Q20" s="42" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="42">
         <f t="shared" si="6"/>
-        <v>X</v>
-      </c>
-      <c r="R20" s="42" t="str">
+        <v>0</v>
+      </c>
+      <c r="R20" s="42">
         <f t="shared" si="7"/>
-        <v>X</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
@@ -3303,22 +3335,24 @@
         <v>14</v>
       </c>
       <c r="M21" s="30"/>
-      <c r="N21" s="63"/>
-      <c r="O21" s="44" t="str">
+      <c r="N21" s="63">
+        <v>13</v>
+      </c>
+      <c r="O21" s="44">
         <f t="shared" si="4"/>
-        <v>X</v>
-      </c>
-      <c r="P21" s="45" t="str">
+        <v>1</v>
+      </c>
+      <c r="P21" s="45">
         <f t="shared" si="5"/>
-        <v>X</v>
-      </c>
-      <c r="Q21" s="45" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="45">
         <f t="shared" si="6"/>
-        <v>X</v>
-      </c>
-      <c r="R21" s="45" t="str">
+        <v>0</v>
+      </c>
+      <c r="R21" s="45">
         <f t="shared" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
@@ -3795,19 +3829,19 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="指令周期状态" prompt="对应状态转换图中的状态" sqref="U2:U15"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3937,7 +3971,7 @@
         <v/>
       </c>
       <c r="M2" s="18" t="str">
-        <f t="shared" ref="M2:M28" si="0">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2) &amp; "+"</f>
+        <f>CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2) &amp; "+"</f>
         <v>~S3 ~S2 ~S1 ~S0 +</v>
       </c>
       <c r="N2" s="16">
@@ -4007,7 +4041,7 @@
         <v/>
       </c>
       <c r="M3" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M3:M28" si="0">CONCATENATE(A3,B3,C3,D3,E3,F3,G3,H3,I3,J3,K3,L3) &amp; "+"</f>
         <v>~S3 ~S2 ~S1  S0 R_Type +</v>
       </c>
       <c r="N3" s="16">
@@ -4027,7 +4061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
         <f>IF(状态机真值表!B4=1," "&amp;状态机真值表!B$1&amp;" ",IF(状态机真值表!B4=0,"~"&amp;状态机真值表!B$1&amp;" ",""))</f>
         <v xml:space="preserve">~S3 </v>
@@ -4077,7 +4111,7 @@
         <v/>
       </c>
       <c r="M4" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A4,B4,C4,D4,E4,F4,G4,H4,I4,J4,K4,L4) &amp; "+"</f>
         <v>~S3 ~S2 ~S1  S0 LW +</v>
       </c>
       <c r="N4" s="16">
@@ -4147,24 +4181,24 @@
         <v/>
       </c>
       <c r="M5" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A5,B5,C5,D5,E5,F5,G5,H5,I5,J5,K5,L5) &amp; "+"</f>
         <v>~S3 ~S2 ~S1  S0 SW +</v>
       </c>
-      <c r="N5" s="16" t="str">
+      <c r="N5" s="16">
         <f>状态机真值表!O5</f>
-        <v>X</v>
-      </c>
-      <c r="O5" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
         <f>状态机真值表!P5</f>
-        <v>X</v>
-      </c>
-      <c r="P5" s="3" t="str">
+        <v>1</v>
+      </c>
+      <c r="P5" s="3">
         <f>状态机真值表!Q5</f>
-        <v>X</v>
-      </c>
-      <c r="Q5" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
         <f>状态机真值表!R5</f>
-        <v>X</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -4220,24 +4254,24 @@
         <f t="shared" si="0"/>
         <v>~S3 ~S2 ~S1  S0 BEQ +</v>
       </c>
-      <c r="N6" s="16" t="str">
+      <c r="N6" s="16">
         <f>状态机真值表!O6</f>
-        <v>X</v>
-      </c>
-      <c r="O6" s="3" t="str">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3">
         <f>状态机真值表!P6</f>
-        <v>X</v>
-      </c>
-      <c r="P6" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3">
         <f>状态机真值表!Q6</f>
-        <v>X</v>
-      </c>
-      <c r="Q6" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
         <f>状态机真值表!R6</f>
-        <v>X</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="str">
         <f>IF(状态机真值表!B7=1," "&amp;状态机真值表!B$1&amp;" ",IF(状态机真值表!B7=0,"~"&amp;状态机真值表!B$1&amp;" ",""))</f>
         <v xml:space="preserve">~S3 </v>
@@ -4290,21 +4324,21 @@
         <f t="shared" si="0"/>
         <v>~S3 ~S2 ~S1  S0 BNE +</v>
       </c>
-      <c r="N7" s="16" t="str">
+      <c r="N7" s="16">
         <f>状态机真值表!O7</f>
-        <v>X</v>
-      </c>
-      <c r="O7" s="3" t="str">
+        <v>1</v>
+      </c>
+      <c r="O7" s="3">
         <f>状态机真值表!P7</f>
-        <v>X</v>
-      </c>
-      <c r="P7" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
         <f>状态机真值表!Q7</f>
-        <v>X</v>
-      </c>
-      <c r="Q7" s="3" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="3">
         <f>状态机真值表!R7</f>
-        <v>X</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -4360,21 +4394,21 @@
         <f t="shared" si="0"/>
         <v>~S3 ~S2 ~S1  S0 SYSCALL +</v>
       </c>
-      <c r="N8" s="16" t="str">
+      <c r="N8" s="16">
         <f>状态机真值表!O8</f>
-        <v>X</v>
-      </c>
-      <c r="O8" s="3" t="str">
+        <v>1</v>
+      </c>
+      <c r="O8" s="3">
         <f>状态机真值表!P8</f>
-        <v>X</v>
-      </c>
-      <c r="P8" s="3" t="str">
+        <v>1</v>
+      </c>
+      <c r="P8" s="3">
         <f>状态机真值表!Q8</f>
-        <v>X</v>
-      </c>
-      <c r="Q8" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <f>状态机真值表!R8</f>
-        <v>X</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -4430,21 +4464,21 @@
         <f t="shared" si="0"/>
         <v>~S3 ~S2 ~S1  S0 ADDI +</v>
       </c>
-      <c r="N9" s="16" t="str">
+      <c r="N9" s="16">
         <f>状态机真值表!O9</f>
-        <v>X</v>
-      </c>
-      <c r="O9" s="3" t="str">
+        <v>1</v>
+      </c>
+      <c r="O9" s="3">
         <f>状态机真值表!P9</f>
-        <v>X</v>
-      </c>
-      <c r="P9" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
         <f>状态机真值表!Q9</f>
-        <v>X</v>
-      </c>
-      <c r="Q9" s="3" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="3">
         <f>状态机真值表!R9</f>
-        <v>X</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -4500,24 +4534,24 @@
         <f t="shared" si="0"/>
         <v>~S3 ~S2  S1 ~S0 +</v>
       </c>
-      <c r="N10" s="16" t="str">
+      <c r="N10" s="16">
         <f>状态机真值表!O10</f>
-        <v>X</v>
-      </c>
-      <c r="O10" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
         <f>状态机真值表!P10</f>
-        <v>X</v>
-      </c>
-      <c r="P10" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <f>状态机真值表!Q10</f>
-        <v>X</v>
-      </c>
-      <c r="Q10" s="3" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="3">
         <f>状态机真值表!R10</f>
-        <v>X</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="str">
         <f>IF(状态机真值表!B11=1," "&amp;状态机真值表!B$1&amp;" ",IF(状态机真值表!B11=0,"~"&amp;状态机真值表!B$1&amp;" ",""))</f>
         <v xml:space="preserve">~S3 </v>
@@ -4570,24 +4604,24 @@
         <f t="shared" si="0"/>
         <v>~S3 ~S2  S1  S0 +</v>
       </c>
-      <c r="N11" s="16" t="str">
+      <c r="N11" s="16">
         <f>状态机真值表!O11</f>
-        <v>X</v>
-      </c>
-      <c r="O11" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3">
         <f>状态机真值表!P11</f>
-        <v>X</v>
-      </c>
-      <c r="P11" s="3" t="str">
+        <v>1</v>
+      </c>
+      <c r="P11" s="3">
         <f>状态机真值表!Q11</f>
-        <v>X</v>
-      </c>
-      <c r="Q11" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
         <f>状态机真值表!R11</f>
-        <v>X</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="str">
         <f>IF(状态机真值表!B12=1," "&amp;状态机真值表!B$1&amp;" ",IF(状态机真值表!B12=0,"~"&amp;状态机真值表!B$1&amp;" ",""))</f>
         <v xml:space="preserve">~S3 </v>
@@ -4640,24 +4674,24 @@
         <f t="shared" si="0"/>
         <v>~S3  S2 ~S1 ~S0 +</v>
       </c>
-      <c r="N12" s="16" t="str">
+      <c r="N12" s="16">
         <f>状态机真值表!O12</f>
-        <v>X</v>
-      </c>
-      <c r="O12" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
         <f>状态机真值表!P12</f>
-        <v>X</v>
-      </c>
-      <c r="P12" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
         <f>状态机真值表!Q12</f>
-        <v>X</v>
-      </c>
-      <c r="Q12" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
         <f>状态机真值表!R12</f>
-        <v>X</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
         <f>IF(状态机真值表!B13=1," "&amp;状态机真值表!B$1&amp;" ",IF(状态机真值表!B13=0,"~"&amp;状态机真值表!B$1&amp;" ",""))</f>
         <v xml:space="preserve">~S3 </v>
@@ -4710,24 +4744,24 @@
         <f t="shared" si="0"/>
         <v>~S3  S2 ~S1  S0 +</v>
       </c>
-      <c r="N13" s="16" t="str">
+      <c r="N13" s="16">
         <f>状态机真值表!O13</f>
-        <v>X</v>
-      </c>
-      <c r="O13" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
         <f>状态机真值表!P13</f>
-        <v>X</v>
-      </c>
-      <c r="P13" s="3" t="str">
+        <v>1</v>
+      </c>
+      <c r="P13" s="3">
         <f>状态机真值表!Q13</f>
-        <v>X</v>
-      </c>
-      <c r="Q13" s="3" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="3">
         <f>状态机真值表!R13</f>
-        <v>X</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="str">
         <f>IF(状态机真值表!B14=1," "&amp;状态机真值表!B$1&amp;" ",IF(状态机真值表!B14=0,"~"&amp;状态机真值表!B$1&amp;" ",""))</f>
         <v xml:space="preserve">~S3 </v>
@@ -4780,24 +4814,24 @@
         <f t="shared" si="0"/>
         <v>~S3  S2  S1 ~S0 +</v>
       </c>
-      <c r="N14" s="16" t="str">
+      <c r="N14" s="16">
         <f>状态机真值表!O14</f>
-        <v>X</v>
-      </c>
-      <c r="O14" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <f>状态机真值表!P14</f>
-        <v>X</v>
-      </c>
-      <c r="P14" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <f>状态机真值表!Q14</f>
-        <v>X</v>
-      </c>
-      <c r="Q14" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <f>状态机真值表!R14</f>
-        <v>X</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="str">
         <f>IF(状态机真值表!B15=1," "&amp;状态机真值表!B$1&amp;" ",IF(状态机真值表!B15=0,"~"&amp;状态机真值表!B$1&amp;" ",""))</f>
         <v xml:space="preserve">~S3 </v>
@@ -4847,27 +4881,27 @@
         <v/>
       </c>
       <c r="M15" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A15,B15,C15,D15,E15,F15,G15,H15,I15,J15,K15,L15) &amp; "+"</f>
         <v>~S3  S2  S1  S0 +</v>
       </c>
-      <c r="N15" s="16" t="str">
+      <c r="N15" s="16">
         <f>状态机真值表!O15</f>
-        <v>X</v>
-      </c>
-      <c r="O15" s="3" t="str">
+        <v>1</v>
+      </c>
+      <c r="O15" s="3">
         <f>状态机真值表!P15</f>
-        <v>X</v>
-      </c>
-      <c r="P15" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
         <f>状态机真值表!Q15</f>
-        <v>X</v>
-      </c>
-      <c r="Q15" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
         <f>状态机真值表!R15</f>
-        <v>X</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="str">
         <f>IF(状态机真值表!B16=1," "&amp;状态机真值表!B$1&amp;" ",IF(状态机真值表!B16=0,"~"&amp;状态机真值表!B$1&amp;" ",""))</f>
         <v xml:space="preserve"> S3 </v>
@@ -4920,24 +4954,24 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve"> S3 ~S2 ~S1 ~S0 +</v>
       </c>
-      <c r="N16" s="16" t="str">
+      <c r="N16" s="16">
         <f>状态机真值表!O16</f>
-        <v>X</v>
-      </c>
-      <c r="O16" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3">
         <f>状态机真值表!P16</f>
-        <v>X</v>
-      </c>
-      <c r="P16" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="P16" s="3">
         <f>状态机真值表!Q16</f>
-        <v>X</v>
-      </c>
-      <c r="Q16" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="3">
         <f>状态机真值表!R16</f>
-        <v>X</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="str">
         <f>IF(状态机真值表!B17=1," "&amp;状态机真值表!B$1&amp;" ",IF(状态机真值表!B17=0,"~"&amp;状态机真值表!B$1&amp;" ",""))</f>
         <v xml:space="preserve"> S3 </v>
@@ -4990,24 +5024,24 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve"> S3 ~S2 ~S1  S0 +</v>
       </c>
-      <c r="N17" s="16" t="str">
+      <c r="N17" s="16">
         <f>状态机真值表!O17</f>
-        <v>X</v>
-      </c>
-      <c r="O17" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
         <f>状态机真值表!P17</f>
-        <v>X</v>
-      </c>
-      <c r="P17" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
         <f>状态机真值表!Q17</f>
-        <v>X</v>
-      </c>
-      <c r="Q17" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
         <f>状态机真值表!R17</f>
-        <v>X</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="str">
         <f>IF(状态机真值表!B18=1," "&amp;状态机真值表!B$1&amp;" ",IF(状态机真值表!B18=0,"~"&amp;状态机真值表!B$1&amp;" ",""))</f>
         <v xml:space="preserve"> S3 </v>
@@ -5060,24 +5094,24 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve"> S3 ~S2  S1 ~S0 +</v>
       </c>
-      <c r="N18" s="16" t="str">
+      <c r="N18" s="16">
         <f>状态机真值表!O18</f>
-        <v>X</v>
-      </c>
-      <c r="O18" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <f>状态机真值表!P18</f>
-        <v>X</v>
-      </c>
-      <c r="P18" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <f>状态机真值表!Q18</f>
-        <v>X</v>
-      </c>
-      <c r="Q18" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <f>状态机真值表!R18</f>
-        <v>X</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="str">
         <f>IF(状态机真值表!B19=1," "&amp;状态机真值表!B$1&amp;" ",IF(状态机真值表!B19=0,"~"&amp;状态机真值表!B$1&amp;" ",""))</f>
         <v xml:space="preserve"> S3 </v>
@@ -5130,24 +5164,24 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve"> S3 ~S2  S1  S0 +</v>
       </c>
-      <c r="N19" s="16" t="str">
+      <c r="N19" s="16">
         <f>状态机真值表!O19</f>
-        <v>X</v>
-      </c>
-      <c r="O19" s="3" t="str">
+        <v>1</v>
+      </c>
+      <c r="O19" s="3">
         <f>状态机真值表!P19</f>
-        <v>X</v>
-      </c>
-      <c r="P19" s="3" t="str">
+        <v>1</v>
+      </c>
+      <c r="P19" s="3">
         <f>状态机真值表!Q19</f>
-        <v>X</v>
-      </c>
-      <c r="Q19" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="3">
         <f>状态机真值表!R19</f>
-        <v>X</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="str">
         <f>IF(状态机真值表!B20=1," "&amp;状态机真值表!B$1&amp;" ",IF(状态机真值表!B20=0,"~"&amp;状态机真值表!B$1&amp;" ",""))</f>
         <v xml:space="preserve"> S3 </v>
@@ -5200,21 +5234,21 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve"> S3  S2 ~S1 ~S0 +</v>
       </c>
-      <c r="N20" s="16" t="str">
+      <c r="N20" s="16">
         <f>状态机真值表!O20</f>
-        <v>X</v>
-      </c>
-      <c r="O20" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <f>状态机真值表!P20</f>
-        <v>X</v>
-      </c>
-      <c r="P20" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <f>状态机真值表!Q20</f>
-        <v>X</v>
-      </c>
-      <c r="Q20" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <f>状态机真值表!R20</f>
-        <v>X</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
@@ -5270,24 +5304,24 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve"> S3  S2 ~S1  S0 +</v>
       </c>
-      <c r="N21" s="16" t="str">
+      <c r="N21" s="16">
         <f>状态机真值表!O21</f>
-        <v>X</v>
-      </c>
-      <c r="O21" s="3" t="str">
+        <v>1</v>
+      </c>
+      <c r="O21" s="3">
         <f>状态机真值表!P21</f>
-        <v>X</v>
-      </c>
-      <c r="P21" s="3" t="str">
+        <v>1</v>
+      </c>
+      <c r="P21" s="3">
         <f>状态机真值表!Q21</f>
-        <v>X</v>
-      </c>
-      <c r="Q21" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <f>状态机真值表!R21</f>
-        <v>X</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
         <f>IF(状态机真值表!B22=1," "&amp;状态机真值表!B$1&amp;" ",IF(状态机真值表!B22=0,"~"&amp;状态机真值表!B$1&amp;" ",""))</f>
         <v/>
@@ -5357,7 +5391,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="str">
         <f>IF(状态机真值表!B23=1," "&amp;状态机真值表!B$1&amp;" ",IF(状态机真值表!B23=0,"~"&amp;状态机真值表!B$1&amp;" ",""))</f>
         <v/>
@@ -5427,7 +5461,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="str">
         <f>IF(状态机真值表!B24=1," "&amp;状态机真值表!B$1&amp;" ",IF(状态机真值表!B24=0,"~"&amp;状态机真值表!B$1&amp;" ",""))</f>
         <v/>
@@ -5497,7 +5531,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="str">
         <f>IF(状态机真值表!B25=1," "&amp;状态机真值表!B$1&amp;" ",IF(状态机真值表!B25=0,"~"&amp;状态机真值表!B$1&amp;" ",""))</f>
         <v/>
@@ -5567,7 +5601,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="str">
         <f>IF(状态机真值表!B26=1," "&amp;状态机真值表!B$1&amp;" ",IF(状态机真值表!B26=0,"~"&amp;状态机真值表!B$1&amp;" ",""))</f>
         <v/>
@@ -5637,7 +5671,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="str">
         <f>IF(状态机真值表!B27=1," "&amp;状态机真值表!B$1&amp;" ",IF(状态机真值表!B27=0,"~"&amp;状态机真值表!B$1&amp;" ",""))</f>
         <v/>
@@ -5707,7 +5741,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="str">
         <f>IF(状态机真值表!B28=1," "&amp;状态机真值表!B$1&amp;" ",IF(状态机真值表!B28=0,"~"&amp;状态机真值表!B$1&amp;" ",""))</f>
         <v/>
@@ -5842,7 +5876,13 @@
   <protectedRanges>
     <protectedRange sqref="A1:Q1" name="区域1"/>
   </protectedRanges>
-  <autoFilter ref="A1:Q28"/>
+  <autoFilter ref="A1:Q28">
+    <filterColumn colId="16">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="N31:Q31"/>
   </mergeCells>
